--- a/src/encoded/tests/data/test-files/submission_test_file_from_doug_20231130.xlsx
+++ b/src/encoded/tests/data/test-files/submission_test_file_from_doug_20231130.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmichaels/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmichaels/repos/cgap/smaht-portal/src/encoded/tests/data/test-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF4CF250-CA0B-7445-A8BF-9E55B36A8F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9592961D-6547-264D-8B53-AD52CD6DAFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E8407000-4AC9-C547-896C-C1D84CEDAAF5}"/>
   </bookViews>
   <sheets>
-    <sheet name="donor" sheetId="2" r:id="rId1"/>
+    <sheet name="donor " sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>

--- a/src/encoded/tests/data/test-files/submission_test_file_from_doug_20231130.xlsx
+++ b/src/encoded/tests/data/test-files/submission_test_file_from_doug_20231130.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dmichaels/repos/cgap/smaht-portal/src/encoded/tests/data/test-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9592961D-6547-264D-8B53-AD52CD6DAFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C555ADE-7C44-2247-9199-DBBC3F09462E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E8407000-4AC9-C547-896C-C1D84CEDAAF5}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>else</t>
   </si>
   <si>
-    <t>FOOBAR</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>smaht_dac</t>
+  </si>
+  <si>
+    <t>XY_DONOR_ABCD</t>
   </si>
 </sst>
 </file>
@@ -417,10 +417,15 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -433,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -441,16 +446,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
